--- a/result/interactions_download/EXCEL/Burkitt_lymphoma_only_precog_mut.xlsx
+++ b/result/interactions_download/EXCEL/Burkitt_lymphoma_only_precog_mut.xlsx
@@ -48,39 +48,39 @@
     <t xml:space="preserve">CD55</t>
   </si>
   <si>
+    <t xml:space="preserve">ATP1B3</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD2</t>
   </si>
   <si>
-    <t xml:space="preserve">ATP1B3</t>
-  </si>
-  <si>
     <t xml:space="preserve">MYL1</t>
   </si>
   <si>
     <t xml:space="preserve">GDI2</t>
   </si>
   <si>
+    <t xml:space="preserve">PTGDS</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLC16A3</t>
   </si>
   <si>
-    <t xml:space="preserve">PTGDS</t>
-  </si>
-  <si>
     <t xml:space="preserve">PLD2</t>
   </si>
   <si>
+    <t xml:space="preserve">DENND2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLRC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESDC2</t>
+  </si>
+  <si>
     <t xml:space="preserve">IGHA1</t>
   </si>
   <si>
-    <t xml:space="preserve">DENND2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLRC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MESDC2</t>
-  </si>
-  <si>
     <t xml:space="preserve">SNX8</t>
   </si>
   <si>
@@ -96,64 +96,64 @@
     <t xml:space="preserve">TSGA10</t>
   </si>
   <si>
+    <t xml:space="preserve">LIMD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNAJC1</t>
   </si>
   <si>
-    <t xml:space="preserve">LIMD1</t>
+    <t xml:space="preserve">GK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP6V1H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTN4IP1</t>
   </si>
   <si>
     <t xml:space="preserve">GCHFR</t>
   </si>
   <si>
-    <t xml:space="preserve">GK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP6V1H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTN4IP1</t>
+    <t xml:space="preserve">ZNF20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTSH</t>
   </si>
   <si>
     <t xml:space="preserve">NEK7</t>
   </si>
   <si>
-    <t xml:space="preserve">ZNF20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAD52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTSH</t>
-  </si>
-  <si>
     <t xml:space="preserve">RFTN1</t>
   </si>
   <si>
     <t xml:space="preserve">CST6</t>
   </si>
   <si>
+    <t xml:space="preserve">MCC</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOX15</t>
   </si>
   <si>
     <t xml:space="preserve">CDC25B</t>
   </si>
   <si>
-    <t xml:space="preserve">MCC</t>
-  </si>
-  <si>
     <t xml:space="preserve">TYMS</t>
   </si>
   <si>
+    <t xml:space="preserve">CCNE2</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEX264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCNE2</t>
   </si>
   <si>
     <t xml:space="preserve">CX3CL1</t>
@@ -657,13 +657,13 @@
         <v>2.826</v>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>16.5</v>
+        <v>16.0147058823529</v>
       </c>
     </row>
     <row r="3">
@@ -677,13 +677,13 @@
         <v>-2.582</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>7.9344262295082</v>
+        <v>7.80645161290323</v>
       </c>
     </row>
     <row r="4">
@@ -717,13 +717,13 @@
         <v>2.782</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>4.05</v>
+        <v>3.85714285714286</v>
       </c>
     </row>
     <row r="6">
@@ -734,16 +734,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.191</v>
+        <v>2.935</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3.84313725490196</v>
       </c>
     </row>
     <row r="7">
@@ -754,16 +754,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.935</v>
+        <v>-3.191</v>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>3.84313725490196</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -797,13 +797,13 @@
         <v>-2.931</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>2.38095238095238</v>
+        <v>2.32558139534884</v>
       </c>
     </row>
     <row r="10">
@@ -814,16 +814,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.936</v>
+        <v>-3.316</v>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.28571428571429</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11">
@@ -834,16 +834,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.316</v>
+        <v>-2.936</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>2.25</v>
+        <v>2.13333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -874,13 +874,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.617</v>
+        <v>-2.848</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -894,7 +894,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.848</v>
+        <v>-3.099</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -914,16 +914,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.099</v>
+        <v>2.763</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1.78571428571429</v>
       </c>
     </row>
     <row r="16">
@@ -934,16 +934,16 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>2.763</v>
+        <v>-2.617</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>1.78571428571429</v>
+        <v>1.77777777777778</v>
       </c>
     </row>
     <row r="17">
@@ -957,13 +957,13 @@
         <v>-2.678</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18">
@@ -977,13 +977,13 @@
         <v>-2.839</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19">
@@ -997,13 +997,13 @@
         <v>-2.758</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="20">
@@ -1017,13 +1017,13 @@
         <v>-2.596</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>1.66666666666667</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="21">
@@ -1054,16 +1054,16 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>3.074</v>
+        <v>2.703</v>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>1.38461538461538</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="23">
@@ -1074,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>2.703</v>
+        <v>3.074</v>
       </c>
       <c r="D23" t="n">
         <v>27</v>
@@ -1094,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.28</v>
+        <v>-2.782</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -1114,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.782</v>
+        <v>-2.773</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
@@ -1134,16 +1134,16 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.773</v>
+        <v>-3.335</v>
       </c>
       <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
         <v>3</v>
       </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
       <c r="F26" t="n">
-        <v>1.33333333333333</v>
+        <v>1.28571428571429</v>
       </c>
     </row>
     <row r="27">
@@ -1154,16 +1154,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>-3.335</v>
+        <v>-2.854</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>1.28571428571429</v>
+        <v>1.08695652173913</v>
       </c>
     </row>
     <row r="28">
@@ -1174,16 +1174,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.854</v>
+        <v>-3.216</v>
       </c>
       <c r="D28" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>1.08695652173913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.216</v>
+        <v>-3.28</v>
       </c>
       <c r="D29" t="n">
         <v>4</v>
@@ -1214,13 +1214,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>3.094</v>
+        <v>-3.181</v>
       </c>
       <c r="D30" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1234,13 +1234,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.181</v>
+        <v>-2.773</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1254,13 +1254,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.773</v>
+        <v>-2.799</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1274,16 +1274,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.799</v>
+        <v>3.094</v>
       </c>
       <c r="D33" t="n">
+        <v>17</v>
+      </c>
+      <c r="E33" t="n">
         <v>4</v>
       </c>
-      <c r="E33" t="n">
-        <v>2</v>
-      </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
     </row>
     <row r="34">
@@ -1297,13 +1297,13 @@
         <v>-2.614</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
     </row>
     <row r="35">
@@ -1334,16 +1334,16 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.728</v>
+        <v>2.708</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8</v>
+        <v>0.692307692307692</v>
       </c>
     </row>
     <row r="37">
@@ -1354,16 +1354,16 @@
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>2.694</v>
+        <v>-2.728</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1374,16 +1374,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>2.708</v>
+        <v>2.694</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>0.692307692307692</v>
+        <v>0.642857142857143</v>
       </c>
     </row>
     <row r="39">
@@ -1414,16 +1414,16 @@
         <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>2.595</v>
+        <v>3.51</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="41">
@@ -1434,16 +1434,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>3.51</v>
+        <v>2.595</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>0.571428571428571</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="42">
@@ -1737,13 +1737,13 @@
         <v>2.741</v>
       </c>
       <c r="D56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E56" t="n">
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>0.19047619047619</v>
+        <v>0.173913043478261</v>
       </c>
     </row>
     <row r="57">
@@ -1777,13 +1777,13 @@
         <v>2.693</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="59">
@@ -2077,7 +2077,7 @@
         <v>-3.393</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2357,15 +2357,15 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -2373,7 +2373,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -2405,7 +2405,7 @@
         <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -2418,7 +2418,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>91</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
